--- a/data/unchecked/manual_collect/france/FranceCaseStatistics20200224.xlsx
+++ b/data/unchecked/manual_collect/france/FranceCaseStatistics20200224.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据\海外\24日\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sun\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386D5B2C-29C1-4CA5-8F43-BEB33DFDF060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -382,7 +383,7 @@
     <definedName name="自贡市">中国各省市区县数据!$C$2043:$C$2048</definedName>
     <definedName name="遵义市">中国各省市区县数据!$C$2220:$C$2233</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -10279,7 +10280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10737,50 +10738,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.36328125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.6328125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.90625" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.08984375" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.875" style="13"/>
+    <col min="40" max="40" width="5.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.90625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="18" customFormat="1" ht="15">
+    <row r="1" spans="1:40" s="18" customFormat="1" ht="16.2">
       <c r="A1" s="16" t="s">
         <v>3251</v>
       </c>
@@ -10902,7 +10903,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" ht="16.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -10910,10 +10911,10 @@
         <v>3285</v>
       </c>
       <c r="C2" s="14">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="D2" s="14">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>3286</v>
@@ -10965,37 +10966,37 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1"/>
+    <hyperlink ref="Y2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -11008,7 +11009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2907"/>
   <sheetViews>
     <sheetView zoomScale="160" workbookViewId="0">
@@ -11016,10 +11017,10 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
